--- a/data/trans_dic/P22_R4-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P22_R4-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.08466010926704616</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1452647472482748</v>
+        <v>0.1452647472482747</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08780990813713653</v>
+        <v>0.0905577693893002</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09850564735260364</v>
+        <v>0.09828072665939562</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05858785694585316</v>
+        <v>0.05579032125578704</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09651905578300775</v>
+        <v>0.09481287172413023</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05417504293768139</v>
+        <v>0.05505398428638158</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05817791590070837</v>
+        <v>0.06149300320486128</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05518058502191447</v>
+        <v>0.05243129833630128</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1266367694520719</v>
+        <v>0.129885836094935</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08209335479904793</v>
+        <v>0.08324494006334514</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08907790575206703</v>
+        <v>0.08905949513241249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06330495274840005</v>
+        <v>0.06357633355854082</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1215588797806296</v>
+        <v>0.1220371090588255</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1681043745168561</v>
+        <v>0.180416809346091</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1873173645144181</v>
+        <v>0.1831413688915635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1266210472846317</v>
+        <v>0.1242979843164703</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1768681314139903</v>
+        <v>0.1743941559343125</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1286161484475589</v>
+        <v>0.1316235512511457</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1313199075774675</v>
+        <v>0.1336261935023099</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1241809063310409</v>
+        <v>0.1247361904379479</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1929194983772491</v>
+        <v>0.1917622312484702</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.134391266526372</v>
+        <v>0.1389541901216419</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1427568888797568</v>
+        <v>0.1441253658960127</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.116049509508174</v>
+        <v>0.1117237986906281</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1717331075592163</v>
+        <v>0.1733013547323504</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07315646101337932</v>
+        <v>0.07217462987129886</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08030915536001902</v>
+        <v>0.07876463851601478</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01424215120976121</v>
+        <v>0.01405429194665074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0765737725170761</v>
+        <v>0.07296873501131905</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04724316435184894</v>
+        <v>0.04741942683438728</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07500961810378202</v>
+        <v>0.07459699649055229</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03090316386816724</v>
+        <v>0.0316448695252967</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06609251581162963</v>
+        <v>0.06738710819319284</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06589755825365244</v>
+        <v>0.06631864617518757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08471404718050107</v>
+        <v>0.08500617959249418</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02657582735967405</v>
+        <v>0.02653406166919969</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07606664028454505</v>
+        <v>0.07595669988918459</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.130467927359179</v>
+        <v>0.1277512477264654</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.144205448795551</v>
+        <v>0.1423403645308768</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04422464351726026</v>
+        <v>0.04668158171807488</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1361457698179689</v>
+        <v>0.1375196813405716</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0919977730417763</v>
+        <v>0.09543104895728079</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1337046219149959</v>
+        <v>0.1304477780639286</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06817061317155339</v>
+        <v>0.07050688988659816</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1084772751618957</v>
+        <v>0.1087887177599811</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1035723736880487</v>
+        <v>0.1028742116356194</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1286169576203345</v>
+        <v>0.1276313572444837</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05033007333343417</v>
+        <v>0.05059491199475288</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1124642211485265</v>
+        <v>0.1154485084161478</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.04125089542375565</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09310466684564053</v>
+        <v>0.09310466684564056</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04887987300255722</v>
@@ -969,7 +969,7 @@
         <v>0.06144328040455042</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09515227534446638</v>
+        <v>0.09515227534446635</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03942559563720946</v>
+        <v>0.03891094789781674</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05061112375852712</v>
+        <v>0.04842000497378462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05566721000438907</v>
+        <v>0.05680697109969001</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06720186906274003</v>
+        <v>0.06873703674750997</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01981877763312781</v>
+        <v>0.01988734652512022</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03727276020895397</v>
+        <v>0.03543934328963001</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02467595707545424</v>
+        <v>0.02176574627671399</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07169490554168492</v>
+        <v>0.07028849905424372</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03337073174907738</v>
+        <v>0.03438611255473478</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04726220421764998</v>
+        <v>0.04845112524549301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04506723187777424</v>
+        <v>0.0455776305350175</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07513825385932291</v>
+        <v>0.07692199357369385</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09316899623028668</v>
+        <v>0.09206680112963424</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.113089951483595</v>
+        <v>0.111894879692908</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1177491575805098</v>
+        <v>0.116959621221857</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.13348016458166</v>
+        <v>0.1348400438320071</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05980373159573345</v>
+        <v>0.06344388194790962</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09883311646542206</v>
+        <v>0.09121188690252195</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06719344951660573</v>
+        <v>0.06456837321165584</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.123671696065819</v>
+        <v>0.1228243841577566</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06745177315275694</v>
+        <v>0.0694164442929263</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09008847484684447</v>
+        <v>0.08952585530082802</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08185313623968345</v>
+        <v>0.08096949258368237</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1173477372462181</v>
+        <v>0.116967260662704</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1072051453424105</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1557913602314465</v>
+        <v>0.1557913602314464</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05760555775504109</v>
+        <v>0.05714634838737521</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0674799060811707</v>
+        <v>0.06943282086073529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09167471366099561</v>
+        <v>0.08691897765104775</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1399630932148189</v>
+        <v>0.1414682435178732</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05328087277488609</v>
+        <v>0.05098447389717196</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0624262801412276</v>
+        <v>0.05803097710722294</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06750988428836069</v>
+        <v>0.06565609405551018</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1006552783522993</v>
+        <v>0.1021232776848812</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06084328638322713</v>
+        <v>0.06137227060491893</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07231059758717601</v>
+        <v>0.07081985162390723</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08503871750374428</v>
+        <v>0.08536643534656391</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1319554391639515</v>
+        <v>0.1299967585580117</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1216406764489787</v>
+        <v>0.1203863373551959</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1344655426100249</v>
+        <v>0.1334183960533445</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1588818326208673</v>
+        <v>0.1611238461747421</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2426798995306627</v>
+        <v>0.2464616435080732</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1064821026835053</v>
+        <v>0.1072158417648941</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1185918796918617</v>
+        <v>0.1171637739744036</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1342499804659223</v>
+        <v>0.1297608148336467</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1599964594077912</v>
+        <v>0.1629480204958573</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1013709035021011</v>
+        <v>0.102866071842556</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1159524593238065</v>
+        <v>0.1143514301095167</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1320957234526395</v>
+        <v>0.1321974676125692</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1884617807878759</v>
+        <v>0.1865350383898235</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.0526808086223239</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09803946306194099</v>
+        <v>0.09803946306194097</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2143110332939201</v>
@@ -1229,7 +1229,7 @@
         <v>0.0165462667678606</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.09382474193621416</v>
+        <v>0.09382474193621418</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2112907489700217</v>
@@ -1241,7 +1241,7 @@
         <v>0.03430390281242764</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.09581934553162734</v>
+        <v>0.09581934553162737</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1581891344151647</v>
+        <v>0.1559424626645346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07070600238896409</v>
+        <v>0.06897462706557508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0266680960353034</v>
+        <v>0.02606647478961147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06801996637804243</v>
+        <v>0.06793445141196042</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1627004891695846</v>
+        <v>0.1630928898422527</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06112853962753077</v>
+        <v>0.06254047942958292</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.00407595072985213</v>
+        <v>0.0041196441868199</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07031333038386681</v>
+        <v>0.07062602603824794</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1724903700073235</v>
+        <v>0.1731845224355232</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07430058090440178</v>
+        <v>0.07410164712764648</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01852180111247776</v>
+        <v>0.01928239487147966</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07674079677683314</v>
+        <v>0.07717046535780614</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2692194968070526</v>
+        <v>0.2669099174092798</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1550845049715536</v>
+        <v>0.1571490791637772</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.09771168951299208</v>
+        <v>0.1002990111032883</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1412401072587255</v>
+        <v>0.1395542543176744</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2754932379937123</v>
+        <v>0.2713589756437267</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1397441105787975</v>
+        <v>0.1393892175330057</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0415039704210021</v>
+        <v>0.04203238973271041</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1235972236027012</v>
+        <v>0.1195872228742936</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2559798420027302</v>
+        <v>0.2541852094852697</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1345585038094255</v>
+        <v>0.1324742169893736</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05659086369474739</v>
+        <v>0.05690023851626524</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.118245214897193</v>
+        <v>0.118630750869092</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.07134293691614067</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09543873636105017</v>
+        <v>0.09543873636105019</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.04363663562924762</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04379135623615526</v>
+        <v>0.04337648651525467</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05087988562142493</v>
+        <v>0.05176358282485118</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04288633369370991</v>
+        <v>0.04454101876885724</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06800476282484062</v>
+        <v>0.06738669213732844</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02448541299396568</v>
+        <v>0.02498647234936288</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01681943928947964</v>
+        <v>0.01729761358650557</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01711584968515543</v>
+        <v>0.01533815697046782</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07608855701344489</v>
+        <v>0.07562678478860849</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03823567887564975</v>
+        <v>0.03932469270744628</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04079526568465982</v>
+        <v>0.03771135170532548</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03513953081353208</v>
+        <v>0.03509446885899359</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08084470057739079</v>
+        <v>0.08117067986459746</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1089683919613672</v>
+        <v>0.108220641163005</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.12475828502496</v>
+        <v>0.1247846408313493</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1102108881075099</v>
+        <v>0.1157099855638741</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1305018247742896</v>
+        <v>0.1295524886099403</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07428771494697203</v>
+        <v>0.07326806477473206</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06284198677715153</v>
+        <v>0.06577760359988465</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06228711536361874</v>
+        <v>0.0627939852730787</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1371251587957827</v>
+        <v>0.1353799730275288</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07819899840760448</v>
+        <v>0.0801175974837039</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08200022291986182</v>
+        <v>0.08267313990473903</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.0753643379035616</v>
+        <v>0.07510802888210957</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1210904898149924</v>
+        <v>0.1234276322728013</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05012674263971288</v>
+        <v>0.04741955359211062</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05489890123432852</v>
+        <v>0.05406622747738315</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08488174941437063</v>
+        <v>0.08430010123777944</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1980986751444945</v>
+        <v>0.2036449269789454</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0635722228944018</v>
+        <v>0.06341073677538904</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0456564577797415</v>
+        <v>0.04586613504595776</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07690051154648511</v>
+        <v>0.07827081716655789</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2115809594480964</v>
+        <v>0.2123164008375397</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06162004583845815</v>
+        <v>0.06051283428848667</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05441164264587487</v>
+        <v>0.05436270812039375</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0865561324457423</v>
+        <v>0.08650096443126486</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.215262445047247</v>
+        <v>0.2179477727641999</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09159115877097632</v>
+        <v>0.08931062971021107</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09920120212666976</v>
+        <v>0.09720353925050307</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1347996551669481</v>
+        <v>0.1368515819215048</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2726241185021858</v>
+        <v>0.2763708596529361</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1101194150460316</v>
+        <v>0.1079313497121128</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0839100058875983</v>
+        <v>0.08605848839713712</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1214704773592426</v>
+        <v>0.1263481808272276</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2725728562952949</v>
+        <v>0.2689353492274955</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0921571204897655</v>
+        <v>0.09030548733921094</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08261683180578831</v>
+        <v>0.08487972972896272</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1211882387568312</v>
+        <v>0.1193996725531706</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2612402576415712</v>
+        <v>0.2641573041026789</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.114437437058435</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.09251587855242661</v>
+        <v>0.09251587855242663</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.148205075709565</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1262390754004888</v>
+        <v>0.1273853911287951</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06674190140114861</v>
+        <v>0.06544234360405539</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07131059814731815</v>
+        <v>0.06871321565218451</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05859933265853115</v>
+        <v>0.06040509041814577</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1239155522646805</v>
+        <v>0.1224908047664899</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06036759353763911</v>
+        <v>0.06157005606057946</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09172055739476014</v>
+        <v>0.09240981770329161</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.07514302849761056</v>
+        <v>0.07379619271675139</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1313555204174262</v>
+        <v>0.1314808925259343</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06838485001052103</v>
+        <v>0.06755023813819183</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08709380678834105</v>
+        <v>0.08790016500781027</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.07352009556520238</v>
+        <v>0.07230288954056104</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1800853410420621</v>
+        <v>0.1812110904637095</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1109662605152957</v>
+        <v>0.1096203924651574</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1135553191936975</v>
+        <v>0.1108687758056834</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09782188409611216</v>
+        <v>0.09947995167462745</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1733495308717196</v>
+        <v>0.1749409216519996</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09969000596205262</v>
+        <v>0.1024750958995745</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.139194005257097</v>
+        <v>0.1394775523132989</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1120128745748009</v>
+        <v>0.1100961703426622</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1681276811920556</v>
+        <v>0.167336033373739</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.09802226972957415</v>
+        <v>0.09881799407764229</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1181464211910186</v>
+        <v>0.119524677984876</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1007231974887868</v>
+        <v>0.09953639140901006</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.0774754943763185</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.1322101441228371</v>
+        <v>0.1322101441228372</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.1005017672187822</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.09538478964699144</v>
+        <v>0.09568501124098282</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.08226267404318849</v>
+        <v>0.08275056278488034</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07255513091758289</v>
+        <v>0.07239278429040003</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1224163031950618</v>
+        <v>0.121803620560216</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.08557577190640722</v>
+        <v>0.08504588865661868</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.06737197292218709</v>
+        <v>0.06676762116171463</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06850104746771289</v>
+        <v>0.06857280457093129</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1235373991004885</v>
+        <v>0.122831228840384</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.09352962841037678</v>
+        <v>0.09292737848460646</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.07721331754559801</v>
+        <v>0.07804620338960376</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.07300206866104694</v>
+        <v>0.07324910829615139</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1258076378444265</v>
+        <v>0.1260455645709052</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.117065587876887</v>
+        <v>0.1166013175410323</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1032721611484851</v>
+        <v>0.103549767822378</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.09215201492423787</v>
+        <v>0.09253159885864069</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1473112729309723</v>
+        <v>0.1489194647751225</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1061921371903994</v>
+        <v>0.1053461632205379</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.0859927318395657</v>
+        <v>0.08587802526354722</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.08702901771464081</v>
+        <v>0.08714270950486862</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1426623661650209</v>
+        <v>0.1425461444355737</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1084985890791435</v>
+        <v>0.1083799332767277</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.09142253765261725</v>
+        <v>0.09211685255418939</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.08698708071809727</v>
+        <v>0.08666443775049996</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1419935557891918</v>
+        <v>0.1425082984409274</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23892</v>
+        <v>24639</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29033</v>
+        <v>28967</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17211</v>
+        <v>16389</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>30775</v>
+        <v>30231</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14131</v>
+        <v>14360</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16711</v>
+        <v>17664</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>15877</v>
+        <v>15086</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>40025</v>
+        <v>41052</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>43749</v>
+        <v>44363</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>51842</v>
+        <v>51831</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>36811</v>
+        <v>36969</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>77178</v>
+        <v>77482</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45738</v>
+        <v>49088</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>55210</v>
+        <v>53979</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>37196</v>
+        <v>36514</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56394</v>
+        <v>55605</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>33548</v>
+        <v>34332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>37721</v>
+        <v>38383</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>35730</v>
+        <v>35890</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>60974</v>
+        <v>60609</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>71620</v>
+        <v>74052</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>83082</v>
+        <v>83879</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>67481</v>
+        <v>64966</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>109034</v>
+        <v>110030</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>36072</v>
+        <v>35588</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>40520</v>
+        <v>39740</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>7158</v>
+        <v>7063</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>40634</v>
+        <v>38721</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>23808</v>
+        <v>23897</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>39287</v>
+        <v>39071</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16165</v>
+        <v>16553</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>36119</v>
+        <v>36827</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>65701</v>
+        <v>66121</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>87112</v>
+        <v>87413</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>27258</v>
+        <v>27215</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>81934</v>
+        <v>81816</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64330</v>
+        <v>62991</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>72758</v>
+        <v>71817</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>22226</v>
+        <v>23461</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>72245</v>
+        <v>72974</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>46362</v>
+        <v>48092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>70030</v>
+        <v>68324</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>35659</v>
+        <v>36881</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>59282</v>
+        <v>59452</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>103264</v>
+        <v>102568</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>132258</v>
+        <v>131245</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>51621</v>
+        <v>51893</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>121140</v>
+        <v>124354</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12571</v>
+        <v>12407</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16400</v>
+        <v>15690</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17628</v>
+        <v>17989</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21235</v>
+        <v>21720</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6647</v>
+        <v>6670</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12711</v>
+        <v>12086</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8299</v>
+        <v>7320</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>25551</v>
+        <v>25049</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>21833</v>
+        <v>22497</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>31432</v>
+        <v>32223</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>29428</v>
+        <v>29761</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>50521</v>
+        <v>51720</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>29707</v>
+        <v>29355</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36646</v>
+        <v>36259</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37287</v>
+        <v>37037</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42179</v>
+        <v>42609</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20059</v>
+        <v>21280</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>33704</v>
+        <v>31105</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22598</v>
+        <v>21715</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>44074</v>
+        <v>43772</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>44131</v>
+        <v>45416</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>59915</v>
+        <v>59541</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>53448</v>
+        <v>52871</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>78902</v>
+        <v>78646</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>20537</v>
+        <v>20374</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25236</v>
+        <v>25967</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33916</v>
+        <v>32157</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>52227</v>
+        <v>52788</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19746</v>
+        <v>18895</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>24281</v>
+        <v>22571</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>26145</v>
+        <v>25427</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>42473</v>
+        <v>43092</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>44241</v>
+        <v>44625</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>55168</v>
+        <v>54031</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>64395</v>
+        <v>64643</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>104919</v>
+        <v>103361</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>43367</v>
+        <v>42920</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50288</v>
+        <v>49896</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>58781</v>
+        <v>59610</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>90555</v>
+        <v>91966</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>39463</v>
+        <v>39735</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>46126</v>
+        <v>45571</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>51993</v>
+        <v>50254</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>67512</v>
+        <v>68758</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>73709</v>
+        <v>74796</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>88464</v>
+        <v>87242</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>100029</v>
+        <v>100106</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>149847</v>
+        <v>148315</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>32161</v>
+        <v>31704</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15033</v>
+        <v>14665</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5633</v>
+        <v>5506</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13989</v>
+        <v>13972</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>33788</v>
+        <v>33869</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>13423</v>
+        <v>13733</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>16096</v>
+        <v>16168</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>70889</v>
+        <v>71175</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>32113</v>
+        <v>32027</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>7961</v>
+        <v>8288</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>33350</v>
+        <v>33537</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>54734</v>
+        <v>54265</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32974</v>
+        <v>33413</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20639</v>
+        <v>21185</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29048</v>
+        <v>28701</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>57211</v>
+        <v>56353</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>30687</v>
+        <v>30609</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>9072</v>
+        <v>9188</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>28294</v>
+        <v>27376</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>105202</v>
+        <v>104464</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>58157</v>
+        <v>57257</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>24323</v>
+        <v>24456</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>51387</v>
+        <v>51555</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11859</v>
+        <v>11747</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>13940</v>
+        <v>14182</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11284</v>
+        <v>11720</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18409</v>
+        <v>18242</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6810</v>
+        <v>6950</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>4710</v>
+        <v>4844</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>4675</v>
+        <v>4189</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>20068</v>
+        <v>19947</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>20990</v>
+        <v>21587</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>22601</v>
+        <v>20893</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>18843</v>
+        <v>18819</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>43208</v>
+        <v>43382</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>29510</v>
+        <v>29307</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>34181</v>
+        <v>34189</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>28999</v>
+        <v>30446</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>35328</v>
+        <v>35071</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>20663</v>
+        <v>20379</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17598</v>
+        <v>18420</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>17012</v>
+        <v>17150</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>36167</v>
+        <v>35706</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>42928</v>
+        <v>43981</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>45429</v>
+        <v>45802</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>40413</v>
+        <v>40276</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>64718</v>
+        <v>65967</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>30779</v>
+        <v>29117</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>36386</v>
+        <v>35834</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>55474</v>
+        <v>55094</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>142569</v>
+        <v>146561</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>40498</v>
+        <v>40395</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>31679</v>
+        <v>31824</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>52790</v>
+        <v>53730</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>163127</v>
+        <v>163694</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>77091</v>
+        <v>75705</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>73817</v>
+        <v>73751</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>115986</v>
+        <v>115912</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>320887</v>
+        <v>324890</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>56239</v>
+        <v>54839</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>65749</v>
+        <v>64425</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>88097</v>
+        <v>89438</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>196204</v>
+        <v>198901</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>70150</v>
+        <v>68756</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>58221</v>
+        <v>59712</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>83386</v>
+        <v>86734</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>210151</v>
+        <v>207347</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>115294</v>
+        <v>112978</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>112081</v>
+        <v>115151</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>162394</v>
+        <v>159997</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>389425</v>
+        <v>393773</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>93603</v>
+        <v>94453</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>51998</v>
+        <v>50986</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>55521</v>
+        <v>53499</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>46766</v>
+        <v>48208</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>97089</v>
+        <v>95973</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>49734</v>
+        <v>50725</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>75776</v>
+        <v>76346</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>62414</v>
+        <v>61296</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>200315</v>
+        <v>200506</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>109618</v>
+        <v>108280</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>139764</v>
+        <v>141058</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>119741</v>
+        <v>117758</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>133528</v>
+        <v>134363</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>86454</v>
+        <v>85405</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>88412</v>
+        <v>86321</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>78069</v>
+        <v>79392</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>135821</v>
+        <v>137068</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>82130</v>
+        <v>84424</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>114997</v>
+        <v>115232</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>93039</v>
+        <v>91447</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>256392</v>
+        <v>255185</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>157125</v>
+        <v>158400</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>189595</v>
+        <v>191807</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>164046</v>
+        <v>162113</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>311921</v>
+        <v>312903</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>281815</v>
+        <v>283487</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>245921</v>
+        <v>245371</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>432468</v>
+        <v>430303</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>289004</v>
+        <v>287214</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>239730</v>
+        <v>237580</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>242407</v>
+        <v>242661</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>461433</v>
+        <v>458795</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>621720</v>
+        <v>617717</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>539266</v>
+        <v>545083</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>505771</v>
+        <v>507483</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>914361</v>
+        <v>916090</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>382820</v>
+        <v>381302</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>353790</v>
+        <v>354741</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>312343</v>
+        <v>313630</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>520416</v>
+        <v>526097</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>358629</v>
+        <v>355772</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>305989</v>
+        <v>305581</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>307973</v>
+        <v>308375</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>532868</v>
+        <v>532434</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>721223</v>
+        <v>720434</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>638505</v>
+        <v>643354</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>602662</v>
+        <v>600426</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1031999</v>
+        <v>1035740</v>
       </c>
     </row>
     <row r="40">
